--- a/Supplementary_Tables/Table S5.xlsx
+++ b/Supplementary_Tables/Table S5.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="29005"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
   <workbookPr checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/skn/Dropbox/Diabetes Submission/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/skn/Dropbox/Diabetes_FinalSubmission/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B2C9CCCC-3448-3044-AF0E-77F64E0DCC28}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9020" yWindow="3020" windowWidth="41300" windowHeight="19800" tabRatio="500"/>
+    <workbookView xWindow="14940" yWindow="3120" windowWidth="30100" windowHeight="20940" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150000"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="137">
   <si>
     <t>Table S5: Constructs for luciferase assay</t>
   </si>
@@ -437,12 +438,24 @@
   <si>
     <t>Alt</t>
   </si>
+  <si>
+    <t>NS</t>
+  </si>
+  <si>
+    <t>Higher_Luc_Activity</t>
+  </si>
+  <si>
+    <t>Higher_Accessibility</t>
+  </si>
+  <si>
+    <t>INS</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -510,7 +523,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -546,9 +559,8 @@
     <xf numFmtId="20" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -559,6 +571,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -826,14 +841,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="15" style="1" customWidth="1"/>
     <col min="2" max="2" width="21" style="1" bestFit="1" customWidth="1"/>
@@ -843,25 +858,21 @@
     <col min="6" max="6" width="5.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="3.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="3.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="54" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="51.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="25.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="10.83203125" style="1"/>
+    <col min="9" max="9" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="54" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="51.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="25.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="13" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:16" s="13" customFormat="1">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="K1" s="14" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -887,25 +898,31 @@
         <v>132</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16">
       <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
@@ -930,26 +947,32 @@
       <c r="H3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="K3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="L3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="M3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="N3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="O3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="P3" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16">
       <c r="A4" s="4" t="s">
         <v>21</v>
       </c>
@@ -974,26 +997,32 @@
       <c r="H4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="L4" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="M4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="N4" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="O4" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="N4" s="6" t="s">
+      <c r="P4" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16">
       <c r="A5" s="4" t="s">
         <v>30</v>
       </c>
@@ -1018,28 +1047,34 @@
       <c r="H5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="L5" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="M5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="L5" s="6" t="s">
+      <c r="N5" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="M5" s="6" t="s">
+      <c r="O5" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="N5" s="6" t="s">
+      <c r="P5" s="6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16">
       <c r="A6" s="4" t="s">
-        <v>39</v>
+        <v>136</v>
       </c>
       <c r="B6" s="4">
         <v>0.5457014</v>
@@ -1062,26 +1097,32 @@
       <c r="H6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="K6" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="L6" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="M6" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="L6" s="6" t="s">
+      <c r="N6" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="M6" s="6" t="s">
+      <c r="O6" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="N6" s="6" t="s">
+      <c r="P6" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16">
       <c r="A7" s="4" t="s">
         <v>47</v>
       </c>
@@ -1106,26 +1147,32 @@
       <c r="H7" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="I7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K7" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="L7" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="M7" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="L7" s="6" t="s">
+      <c r="N7" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="M7" s="6" t="s">
+      <c r="O7" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="N7" s="6" t="s">
+      <c r="P7" s="6" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16">
       <c r="A8" s="4" t="s">
         <v>56</v>
       </c>
@@ -1150,26 +1197,32 @@
       <c r="H8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="I8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="J8" s="6" t="s">
+      <c r="L8" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="M8" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="L8" s="6" t="s">
+      <c r="N8" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="M8" s="6" t="s">
+      <c r="O8" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="N8" s="6" t="s">
+      <c r="P8" s="6" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -1194,8 +1247,10 @@
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" s="4" t="s">
         <v>65</v>
       </c>
@@ -1220,26 +1275,32 @@
       <c r="H10" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="I10" s="6" t="s">
+      <c r="I10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="K10" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="J10" s="6" t="s">
+      <c r="L10" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="K10" s="4" t="s">
+      <c r="M10" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="L10" s="4" t="s">
+      <c r="N10" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="M10" s="4" t="s">
+      <c r="O10" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="N10" s="4" t="s">
+      <c r="P10" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -1264,8 +1325,10 @@
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12" s="4" t="s">
         <v>74</v>
       </c>
@@ -1290,26 +1353,32 @@
       <c r="H12" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I12" s="6" t="s">
+      <c r="I12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="K12" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="J12" s="6" t="s">
+      <c r="L12" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="K12" s="4" t="s">
+      <c r="M12" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="L12" s="6" t="s">
+      <c r="N12" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="M12" s="6" t="s">
+      <c r="O12" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="N12" s="6" t="s">
+      <c r="P12" s="6" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -1334,8 +1403,10 @@
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14" s="4" t="s">
         <v>83</v>
       </c>
@@ -1360,26 +1431,32 @@
       <c r="H14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I14" s="6" t="s">
+      <c r="I14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K14" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="J14" s="6" t="s">
+      <c r="L14" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="K14" s="4" t="s">
+      <c r="M14" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="L14" s="6" t="s">
+      <c r="N14" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="M14" s="6" t="s">
+      <c r="O14" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="N14" s="6" t="s">
+      <c r="P14" s="6" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -1404,8 +1481,10 @@
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+    </row>
+    <row r="16" spans="1:16">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -1430,8 +1509,10 @@
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -1456,8 +1537,10 @@
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" s="8" t="s">
         <v>94</v>
       </c>
@@ -1482,26 +1565,32 @@
       <c r="H18" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I18" s="10" t="s">
+      <c r="I18" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="K18" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="J18" s="10" t="s">
+      <c r="L18" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="K18" s="8" t="s">
+      <c r="M18" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="L18" s="8" t="s">
+      <c r="N18" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="M18" s="8" t="s">
+      <c r="O18" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="N18" s="8" t="s">
+      <c r="P18" s="8" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16">
       <c r="A19" s="8" t="s">
         <v>102</v>
       </c>
@@ -1526,26 +1615,32 @@
       <c r="H19" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="I19" s="10" t="s">
+      <c r="I19" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="K19" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="J19" s="10" t="s">
+      <c r="L19" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="K19" s="8" t="s">
+      <c r="M19" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="L19" s="8" t="s">
+      <c r="N19" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="M19" s="8" t="s">
+      <c r="O19" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="N19" s="8" t="s">
+      <c r="P19" s="8" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16">
       <c r="A20" s="8"/>
       <c r="B20" s="11"/>
       <c r="C20" s="8"/>
@@ -1564,14 +1659,16 @@
       <c r="H20" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
       <c r="M20" s="8"/>
       <c r="N20" s="8"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21" s="4" t="s">
         <v>111</v>
       </c>
@@ -1596,26 +1693,32 @@
       <c r="H21" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I21" s="10" t="s">
+      <c r="I21" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K21" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="J21" s="10" t="s">
+      <c r="L21" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="K21" s="4" t="s">
+      <c r="M21" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="L21" s="8" t="s">
+      <c r="N21" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="M21" s="8" t="s">
+      <c r="O21" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="N21" s="8" t="s">
+      <c r="P21" s="8" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16">
       <c r="A22" s="4"/>
       <c r="B22" s="11"/>
       <c r="C22" s="12"/>
@@ -1634,14 +1737,16 @@
       <c r="H22" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="4"/>
       <c r="N22" s="8"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23" s="4"/>
       <c r="B23" s="11"/>
       <c r="C23" s="12"/>
@@ -1660,14 +1765,16 @@
       <c r="H23" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="4"/>
       <c r="N23" s="8"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="8"/>
+      <c r="P23" s="8"/>
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24" s="4" t="s">
         <v>121</v>
       </c>
@@ -1692,26 +1799,32 @@
       <c r="H24" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I24" s="10" t="s">
+      <c r="I24" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J24" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="K24" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="J24" s="10" t="s">
+      <c r="L24" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="K24" s="4" t="s">
+      <c r="M24" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="L24" s="8" t="s">
+      <c r="N24" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="M24" s="8" t="s">
+      <c r="O24" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="N24" s="8" t="s">
+      <c r="P24" s="8" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
@@ -1735,8 +1848,13 @@
       <c r="K25" s="8"/>
       <c r="L25" s="8"/>
       <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:XFD1"/>
+  </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
